--- a/游戏乐趣思考.xlsx
+++ b/游戏乐趣思考.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27990\Desktop\北风熔炉\系统文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927987CB-DB58-4CCA-B2C7-EAD0DD7ACEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1E2D7-B51F-4D9D-9D16-13400E07528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>1.为什么要引入暴击--增加战斗不确定性、丰富流派提供多样玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>小队模板--法师+战士+盾卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.死亡结算应该在哪个环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.buff的添加和触发的规则应该怎么构建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="P16" sqref="P16:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,6 +628,16 @@
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/游戏乐趣思考.xlsx
+++ b/游戏乐趣思考.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1E2D7-B51F-4D9D-9D16-13400E07528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103D37C4-3ABA-4B39-8CF7-4531D2B4C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>1.为什么要引入暴击--增加战斗不确定性、丰富流派提供多样玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,11 +124,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.死亡结算应该在哪个环节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.buff的添加和触发的规则应该怎么构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.死亡结算应该在哪个环节--绑定在阶段上，如果受到伤害和治疗，允许生命值先降到负数再回到正数，这个过程中不触发死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样在多个buff结算时不会因为结算先后顺序影响游戏体验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J26"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16:P17"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -632,12 +636,17 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/游戏乐趣思考.xlsx
+++ b/游戏乐趣思考.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103D37C4-3ABA-4B39-8CF7-4531D2B4C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC0AA8-EA72-46C4-9B02-5DDEA13225EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="游戏教学" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>1.为什么要引入暴击--增加战斗不确定性、丰富流派提供多样玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +134,17 @@
   </si>
   <si>
     <t>这样在多个buff结算时不会因为结算先后顺序影响游戏体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1让教程融入游戏 2实践胜于阅读 3说明文本短 4循序渐进地引进机制 5让玩家尝试一下 6不要让信息唐突出现 7不要制造噪音 8自适应指引 9利用玩家经验 10利用视觉教学</t>
+  </si>
+  <si>
+    <t>学习意愿与游戏投入成正比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过诱导而非补丁系统或者是文字教学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +173,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF18191C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,9 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -669,4 +688,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5587946A-3F8A-4606-83D8-678885741491}">
+  <dimension ref="D13:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/游戏乐趣思考.xlsx
+++ b/游戏乐趣思考.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC0AA8-EA72-46C4-9B02-5DDEA13225EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0944CB23-9CE1-4AC8-A0B2-C1343FC94DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="游戏教学" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>1.为什么要引入暴击--增加战斗不确定性、丰富流派提供多样玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,14 @@
   </si>
   <si>
     <t>通过诱导而非补丁系统或者是文字教学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.是否引入近距离攻击和远距离攻击的概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充分利用距离,提高位置的重要性,丰富玩法和流派</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J28"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -666,6 +674,16 @@
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -694,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5587946A-3F8A-4606-83D8-678885741491}">
   <dimension ref="D13:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/游戏乐趣思考.xlsx
+++ b/游戏乐趣思考.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0944CB23-9CE1-4AC8-A0B2-C1343FC94DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2D7F9A-2199-4171-A902-E6E2017BD7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>1.为什么要引入暴击--增加战斗不确定性、丰富流派提供多样玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,202 @@
   </si>
   <si>
     <t>充分利用距离,提高位置的重要性,丰富玩法和流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制会更加复杂，多一层理解难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.游戏的构筑维度和能力考验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中最基础的是造成伤害的能力，基于这个能力，设计了很多能够造成伤害的流派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要从三个维度出发进行构筑：造成伤害的能力、生存的能力、以及衍生出的施法资源获取的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后是生存的能力，也就是防御，目前这部分设计内容较少，主要交给盾卫这一职业来承担，战士的部分流派也能承担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路主要为：降低敌人行动频率、抵挡受到的伤害、让特定的目标承受伤害、降低敌人的伤害能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生存能力需要和位置挂钩，越靠前的位置要求越强的生存能力，在这一点上，需要多考虑怪物的设计。另外需要思考人物死亡后到底</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要不要1血复活</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果人物死亡说明生存能力没有达到关卡要求，应该给予玩家惩罚，来进行生存能力是必要的提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>但是一个人物死亡后，整队战斗能力大大降低，不希望这样的情况出现，可以在战斗外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用限量的复活石道具复活</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以在营地复活。这样可以为意外的死亡提供容错，也能让玩家付出代价（在营地复活就浪费了强化机会）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家需要去匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个角色</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前的施法资源回复能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前技能的消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，否则会有技能用不出来或者有资源但是技能强度较低不能充分消耗的情况</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>而这种游玩的思路需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>技能强度和资源消耗正相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这样单个角色构筑上可以强技能和弱技能搭配，完成比较均衡的资源-消耗配比</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有点像</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>皇室战争的圣水消耗平衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，高消耗卡和低消耗卡搭配，消耗对应强度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能应该取消稀有度的设定，而是用法力消耗高低代替稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后是施法资源获取的能力，施法资源影响技能施放，从而对生存和进攻产生影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样也不需要锁技能槽位，前期拿了强技能也没有足够的法力使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +384,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,10 +439,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -676,14 +907,94 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/游戏乐趣思考.xlsx
+++ b/游戏乐趣思考.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2D7F9A-2199-4171-A902-E6E2017BD7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE4B282-F6AC-49EA-A2AD-142F666E1083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,6 +499,50 @@
         <a:xfrm>
           <a:off x="933450" y="571500"/>
           <a:ext cx="8266667" cy="5838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>389937</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EE5950-0EC9-249C-1250-264408156F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401175" y="1343025"/>
+          <a:ext cx="4704762" cy="1304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -775,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
@@ -1007,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6019605F-3BAC-47F4-896B-917BB6569ECC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
